--- a/src/orders.xlsx
+++ b/src/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6567,16 +6567,476 @@
         <v>these are the files</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C269" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E269" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F269" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G269" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C270" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E270" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F270" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G270" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C271" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E271" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F271" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G271" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C272" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D272" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E272" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F272" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G272" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C273" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E273" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F273" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G273" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C274" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E274" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F274" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G274" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C275" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E275" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F275" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G275" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C276" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D276" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E276" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F276" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G276" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C277" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D277" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E277" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F277" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G277" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C278" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E278" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F278" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G278" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C279" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D279" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E279" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F279" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G279" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C280" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E280" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F280" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G280" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C281" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D281" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E281" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F281" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G281" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C282" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D282" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E282" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F282" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G282" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C283" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E283" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F283" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G283" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C284" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D284" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E284" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F284" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G284" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C285" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E285" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F285" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G285" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C286" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E286" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F286" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G286" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C287" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D287" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E287" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F287" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G287" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C288" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E288" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F288" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G288" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G268"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G288"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -10101,9 +10561,273 @@
         <v>12334</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1222</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C320"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C344"/>
   </ignoredErrors>
 </worksheet>
 </file>